--- a/Doc/데이터Xml_170609_장비basestat변경.xlsx
+++ b/Doc/데이터Xml_170609_장비basestat변경.xlsx
@@ -2962,116 +2962,115 @@
     <t>global</t>
   </si>
   <si>
+    <t>ReputationXH</t>
+  </si>
+  <si>
+    <t>BonusEquipment</t>
+  </si>
+  <si>
+    <t>RankBonus</t>
+  </si>
+  <si>
+    <t>BonusLevel</t>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검연마11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검연마12</t>
+  </si>
+  <si>
+    <t>검연마13</t>
+  </si>
+  <si>
+    <t>검연마14</t>
+  </si>
+  <si>
+    <t>검연마15</t>
+  </si>
+  <si>
+    <t>검연마16</t>
+  </si>
+  <si>
+    <t>검연마17</t>
+  </si>
+  <si>
+    <t>검연마18</t>
+  </si>
+  <si>
+    <t>검연마19</t>
+  </si>
+  <si>
+    <t>검연마20</t>
+  </si>
+  <si>
+    <t>검연마21</t>
+  </si>
+  <si>
+    <t>검연마22</t>
+  </si>
+  <si>
+    <t>검연마23</t>
+  </si>
+  <si>
+    <t>검연마24</t>
+  </si>
+  <si>
+    <t>검연마25</t>
+  </si>
+  <si>
+    <t>showlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirelevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level(계수결정레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringvalue2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축보스HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽝드랍레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumableX</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FastStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReputationXH</t>
-  </si>
-  <si>
-    <t>BonusEquipment</t>
-  </si>
-  <si>
-    <t>RankBonus</t>
-  </si>
-  <si>
-    <t>BonusLevel</t>
-  </si>
-  <si>
-    <t>hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검연마11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검연마12</t>
-  </si>
-  <si>
-    <t>검연마13</t>
-  </si>
-  <si>
-    <t>검연마14</t>
-  </si>
-  <si>
-    <t>검연마15</t>
-  </si>
-  <si>
-    <t>검연마16</t>
-  </si>
-  <si>
-    <t>검연마17</t>
-  </si>
-  <si>
-    <t>검연마18</t>
-  </si>
-  <si>
-    <t>검연마19</t>
-  </si>
-  <si>
-    <t>검연마20</t>
-  </si>
-  <si>
-    <t>검연마21</t>
-  </si>
-  <si>
-    <t>검연마22</t>
-  </si>
-  <si>
-    <t>검연마23</t>
-  </si>
-  <si>
-    <t>검연마24</t>
-  </si>
-  <si>
-    <t>검연마25</t>
-  </si>
-  <si>
-    <t>showlevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirelevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level(계수결정레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringvalue2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축보스HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽝드랍레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumableX</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>InitExpCoef</t>
   </si>
 </sst>
 </file>
@@ -8462,7 +8461,7 @@
         <v>394</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H1" s="78" t="s">
         <v>546</v>
@@ -8480,7 +8479,7 @@
         <v>550</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N1" s="78" t="s">
         <v>548</v>
@@ -8533,7 +8532,7 @@
         <v>1000</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M2" s="83">
         <v>29175</v>
@@ -8753,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="82" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P6" s="17">
         <v>10</v>
@@ -8805,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="87" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P7" s="18">
         <v>10</v>
@@ -8859,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="82" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P8" s="17">
         <v>10</v>
@@ -8913,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="87" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P9" s="18">
         <v>10</v>
@@ -8964,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="82" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P10" s="17">
         <v>10</v>
@@ -9015,7 +9014,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="87" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P11" s="18">
         <v>10</v>
@@ -9066,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="91" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P12" s="138">
         <v>10</v>
@@ -10922,10 +10921,10 @@
         <v>687</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>688</v>
@@ -10943,7 +10942,7 @@
         <v>34</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>594</v>
@@ -10970,18 +10969,18 @@
         <v>92</v>
       </c>
       <c r="S1" s="133" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17.25" thickTop="1">
       <c r="A2" s="18" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="139" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D2" s="88">
         <v>0</v>
@@ -13323,7 +13322,7 @@
         <v>84</v>
       </c>
       <c r="H46" s="87" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I46" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q46,"배 증가합니다.")</f>
@@ -13376,7 +13375,7 @@
         <v>84</v>
       </c>
       <c r="H47" s="87" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I47" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q47,"배 증가합니다.")</f>
@@ -13429,7 +13428,7 @@
         <v>84</v>
       </c>
       <c r="H48" s="87" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I48" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q48,"배 증가합니다.")</f>
@@ -13482,7 +13481,7 @@
         <v>84</v>
       </c>
       <c r="H49" s="87" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I49" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q49,"배 증가합니다.")</f>
@@ -13535,7 +13534,7 @@
         <v>84</v>
       </c>
       <c r="H50" s="87" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I50" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q50,"배 증가합니다.")</f>
@@ -13588,7 +13587,7 @@
         <v>84</v>
       </c>
       <c r="H51" s="87" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I51" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q51,"배 증가합니다.")</f>
@@ -13641,7 +13640,7 @@
         <v>84</v>
       </c>
       <c r="H52" s="87" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I52" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q52,"배 증가합니다.")</f>
@@ -13694,7 +13693,7 @@
         <v>84</v>
       </c>
       <c r="H53" s="87" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I53" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q53,"배 증가합니다.")</f>
@@ -13747,7 +13746,7 @@
         <v>84</v>
       </c>
       <c r="H54" s="87" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I54" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q54,"배 증가합니다.")</f>
@@ -13800,7 +13799,7 @@
         <v>84</v>
       </c>
       <c r="H55" s="87" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I55" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q55,"배 증가합니다.")</f>
@@ -13853,7 +13852,7 @@
         <v>84</v>
       </c>
       <c r="H56" s="87" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I56" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q56,"배 증가합니다.")</f>
@@ -13906,7 +13905,7 @@
         <v>84</v>
       </c>
       <c r="H57" s="87" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I57" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q57,"배 증가합니다.")</f>
@@ -13959,7 +13958,7 @@
         <v>84</v>
       </c>
       <c r="H58" s="87" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I58" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q58,"배 증가합니다.")</f>
@@ -14012,7 +14011,7 @@
         <v>84</v>
       </c>
       <c r="H59" s="87" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I59" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q59,"배 증가합니다.")</f>
@@ -14065,7 +14064,7 @@
         <v>84</v>
       </c>
       <c r="H60" s="87" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I60" s="87" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q60,"배 증가합니다.")</f>
@@ -21215,7 +21214,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21347,20 +21346,14 @@
         <v>776</v>
       </c>
       <c r="G4" s="125" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="132" t="s">
-        <v>779</v>
-      </c>
-      <c r="J4" s="132" t="s">
-        <v>780</v>
-      </c>
-      <c r="K4" s="129">
-        <v>50</v>
-      </c>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="125" t="s">
@@ -21370,25 +21363,32 @@
         <v>746</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="124">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" s="125" t="s">
         <v>778</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
+      <c r="I5" s="125" t="s">
+        <v>810</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>811</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="125" t="s">
@@ -21411,7 +21411,7 @@
         <v>778</v>
       </c>
       <c r="G6" s="125" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -21420,7 +21420,7 @@
         <v>778</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -21443,19 +21443,19 @@
         <v>50</v>
       </c>
       <c r="F7" s="125" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G7" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" s="125" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J7" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -21481,7 +21481,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H8" s="124">
         <v>3</v>
@@ -21490,7 +21490,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -21516,7 +21516,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H9" s="124">
         <v>3</v>
@@ -21525,7 +21525,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K9" s="124">
         <v>1</v>
@@ -21551,7 +21551,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H10" s="124">
         <v>3</v>
@@ -21560,7 +21560,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K10" s="124">
         <v>1</v>
@@ -21586,7 +21586,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H11" s="124">
         <v>3</v>
@@ -21595,7 +21595,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K11" s="124">
         <v>1</v>
@@ -21621,7 +21621,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H12" s="124">
         <v>3</v>
@@ -21630,7 +21630,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K12" s="124">
         <v>1</v>
@@ -21656,7 +21656,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H13" s="124">
         <v>3</v>
@@ -21665,7 +21665,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K13" s="124">
         <v>1</v>
@@ -21691,7 +21691,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H14" s="124">
         <v>3</v>
@@ -21700,7 +21700,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K14" s="124">
         <v>1</v>
@@ -21726,7 +21726,7 @@
         <v>235</v>
       </c>
       <c r="G15" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H15" s="124">
         <v>3</v>
@@ -21735,7 +21735,7 @@
         <v>235</v>
       </c>
       <c r="J15" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K15" s="124">
         <v>1</v>
@@ -21761,7 +21761,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H16" s="124">
         <v>3</v>
@@ -21770,7 +21770,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="125" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K16" s="124">
         <v>1</v>
